--- a/source_files/Experimental_Design.xlsx
+++ b/source_files/Experimental_Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielaquijano/Documents/GitHub/Transcriptomics-Final-Project-/source_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932EBC6D-D8D6-BE48-99A2-E29D4F1096F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C766B9B-9D76-6D4B-8978-54680319855C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="540" windowWidth="19720" windowHeight="16520" xr2:uid="{2AE68F9D-4078-D048-B532-54A30FB9E330}"/>
+    <workbookView xWindow="3820" yWindow="460" windowWidth="19720" windowHeight="16520" xr2:uid="{2AE68F9D-4078-D048-B532-54A30FB9E330}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="79">
   <si>
     <t>Sample</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>WT</t>
-  </si>
-  <si>
-    <t>WTF</t>
   </si>
   <si>
     <t>SRR8512301</t>
@@ -674,7 +671,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -699,10 +696,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -713,13 +710,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
@@ -727,10 +724,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -741,13 +738,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -755,10 +752,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -769,13 +766,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
@@ -783,10 +780,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
@@ -797,13 +794,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -811,13 +808,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -825,10 +822,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>47</v>
@@ -839,13 +836,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
@@ -853,10 +850,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>47</v>
@@ -867,10 +864,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>47</v>
@@ -881,13 +878,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -895,10 +892,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>47</v>
@@ -909,13 +906,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1">
         <v>8</v>
@@ -923,10 +920,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>47</v>
@@ -937,13 +934,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -951,10 +948,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>47</v>
@@ -965,13 +962,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -979,10 +976,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>47</v>
@@ -993,13 +990,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1">
         <v>8</v>
@@ -1007,10 +1004,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>47</v>
@@ -1021,13 +1018,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
@@ -1035,10 +1032,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>47</v>
@@ -1049,13 +1046,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -1237,7 +1234,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="1">
         <v>6</v>
@@ -1651,10 +1648,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>47</v>
@@ -1665,13 +1662,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D71" s="1">
         <v>2</v>
@@ -1679,10 +1676,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>47</v>
@@ -1693,13 +1690,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D73" s="1">
         <v>8</v>

--- a/source_files/Experimental_Design.xlsx
+++ b/source_files/Experimental_Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielaquijano/Documents/GitHub/Transcriptomics-Final-Project-/source_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C766B9B-9D76-6D4B-8978-54680319855C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA0E849-5144-4A4D-A604-D502A35A14C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="460" windowWidth="19720" windowHeight="16520" xr2:uid="{2AE68F9D-4078-D048-B532-54A30FB9E330}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
   <si>
     <t>Sample</t>
   </si>
@@ -177,9 +177,6 @@
     <t xml:space="preserve">Genotype </t>
   </si>
   <si>
-    <t>WT</t>
-  </si>
-  <si>
     <t>SRR8512301</t>
   </si>
   <si>
@@ -271,6 +268,12 @@
   </si>
   <si>
     <t>rtg4510</t>
+  </si>
+  <si>
+    <t>WT, rtg4510</t>
+  </si>
+  <si>
+    <t>WT, J20</t>
   </si>
 </sst>
 </file>
@@ -670,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E744008B-C7BD-5342-B6F3-EDD28287AC96}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="132" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -696,13 +699,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D2" s="1">
         <v>8</v>
@@ -710,13 +713,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
@@ -724,13 +727,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -738,13 +741,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -752,13 +755,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -766,13 +769,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
@@ -780,13 +783,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -794,13 +797,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -808,13 +811,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -822,13 +825,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -836,13 +839,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
@@ -850,13 +853,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
@@ -864,13 +867,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -878,13 +881,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -892,13 +895,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D16" s="1">
         <v>8</v>
@@ -906,13 +909,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1">
         <v>8</v>
@@ -920,13 +923,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -934,13 +937,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -948,13 +951,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -962,13 +965,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -976,13 +979,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D22" s="1">
         <v>8</v>
@@ -990,13 +993,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1">
         <v>8</v>
@@ -1004,13 +1007,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
@@ -1018,13 +1021,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
@@ -1032,13 +1035,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -1046,13 +1049,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -1066,7 +1069,7 @@
         <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D28" s="1">
         <v>6</v>
@@ -1080,7 +1083,7 @@
         <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1">
         <v>6</v>
@@ -1122,7 +1125,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D32" s="1">
         <v>12</v>
@@ -1136,7 +1139,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1">
         <v>12</v>
@@ -1178,7 +1181,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1">
         <v>12</v>
@@ -1192,7 +1195,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1">
         <v>12</v>
@@ -1234,7 +1237,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D40" s="1">
         <v>6</v>
@@ -1262,7 +1265,7 @@
         <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1">
         <v>12</v>
@@ -1290,7 +1293,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D44" s="1">
         <v>6</v>
@@ -1318,7 +1321,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D46" s="1">
         <v>12</v>
@@ -1346,7 +1349,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1">
         <v>6</v>
@@ -1374,7 +1377,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1">
         <v>6</v>
@@ -1402,7 +1405,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1">
         <v>12</v>
@@ -1430,7 +1433,7 @@
         <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D54" s="1">
         <v>6</v>
@@ -1458,7 +1461,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D56" s="1">
         <v>12</v>
@@ -1486,7 +1489,7 @@
         <v>45</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D58" s="1">
         <v>6</v>
@@ -1514,7 +1517,7 @@
         <v>45</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D60" s="1">
         <v>12</v>
@@ -1542,7 +1545,7 @@
         <v>45</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D62" s="1">
         <v>12</v>
@@ -1556,7 +1559,7 @@
         <v>45</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D63" s="1">
         <v>12</v>
@@ -1598,7 +1601,7 @@
         <v>45</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D66" s="1">
         <v>6</v>
@@ -1612,7 +1615,7 @@
         <v>45</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D67" s="1">
         <v>6</v>
@@ -1648,13 +1651,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -1662,13 +1665,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D71" s="1">
         <v>2</v>
@@ -1676,13 +1679,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D72" s="1">
         <v>8</v>
@@ -1690,13 +1693,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D73" s="1">
         <v>8</v>
